--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_9_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_9_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.86258689393682, 73.17627910350643]</t>
+          <t>[53.950525608403936, 73.08834038903932]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.734157086025235, 56.51197006259588]</t>
+          <t>[43.72772818883496, 56.518398959786154]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[53.641301070812744, 73.18993882099934]</t>
+          <t>[53.55876814085056, 73.27247175096153]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P3" t="n">
         <v>1.478026573760964</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.673996003805705, 54.52432287676266]</t>
+          <t>[41.683090009276334, 54.51522887129203]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[53.108651510068796, 73.75510298686153]</t>
+          <t>[52.88993708917917, 73.97381740775116]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="P4" t="n">
         <v>1.415131825941348</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.78325602520733, 56.70378270323946]</t>
+          <t>[43.78650224801575, 56.70053648043104]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[52.24067351452187, 74.5713468268606]</t>
+          <t>[52.54102138785514, 74.27099895352734]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="O5" t="n">
-        <v>6.439293542825908e-15</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="P5" t="n">
         <v>1.276763380738194</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.86234124877998, 56.85674438243411]</t>
+          <t>[43.85550158494461, 56.86358404626947]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[51.71226739292675, 74.98042286494643]</t>
+          <t>[52.345351224601465, 74.34733903327171]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.664535259100376e-14</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="O6" t="n">
-        <v>2.664535259100376e-14</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="P6" t="n">
         <v>1.213868632918578</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.80851834374602, 54.85315371759237]</t>
+          <t>[41.808458799724235, 54.85321326161416]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.6185569775445, 75.25024947292518]</t>
+          <t>[51.255538556532755, 75.61326789393692]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.241051954068098e-14</v>
+        <v>1.13464793116691e-13</v>
       </c>
       <c r="O7" t="n">
-        <v>4.241051954068098e-14</v>
+        <v>1.13464793116691e-13</v>
       </c>
       <c r="P7" t="n">
         <v>1.150973885098963</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.931349005547105, 57.007184215523225]</t>
+          <t>[43.9325828297452, 57.00595039132513]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.42402341485477, 76.09395142935605]</t>
+          <t>[51.0458732266313, 76.47210161757953]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.449951270160454e-13</v>
+        <v>3.790301406070284e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.449951270160454e-13</v>
+        <v>3.790301406070284e-13</v>
       </c>
       <c r="P8" t="n">
         <v>0.8365001460008861</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.18978991363436, 56.17389041344458]</t>
+          <t>[43.191996676020565, 56.17168365105837]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[51.15617205870976, 76.36180278550107]</t>
+          <t>[50.99584731146365, 76.52212753274718]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.877698079828406e-13</v>
+        <v>4.289901767151605e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>2.877698079828406e-13</v>
+        <v>4.289901767151605e-13</v>
       </c>
       <c r="P9" t="n">
         <v>0.8365001460008861</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.19149295312286, 56.17218737395608]</t>
+          <t>[43.19553027097845, 56.16815005610049]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[51.44011784393683, 76.17016461922816]</t>
+          <t>[51.88486223598158, 75.7254202271834]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.534328220031966e-13</v>
+        <v>4.685141163918161e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>1.534328220031966e-13</v>
+        <v>4.685141163918161e-14</v>
       </c>
       <c r="P10" t="n">
         <v>0.9622896416401163</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.23129947742794, 56.221214652049014]</t>
+          <t>[43.230800245503815, 56.22171388397314]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[51.158087570330004, 76.452194892835]</t>
+          <t>[51.348899223935916, 76.26138323922908]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.144151605738443e-13</v>
+        <v>1.938449400995523e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>3.144151605738443e-13</v>
+        <v>1.938449400995523e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0.9622896416401163</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.229071558476434, 56.22344257100052]</t>
+          <t>[43.235908081483416, 56.21660604799354]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,35 +1459,35 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.51409233179521, 76.09619013136978]</t>
+          <t>[51.162284349266486, 76.4479981138985]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.265654248072678e-13</v>
+        <v>3.110844914999689e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.265654248072678e-13</v>
+        <v>3.110844914999689e-13</v>
       </c>
       <c r="P12" t="n">
         <v>0.9622896416401163</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 1.1635528346628856]</t>
+          <t>[0.7736053981812692, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.671773830480561e-12</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="S12" t="n">
-        <v>1.671773830480561e-12</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="T12" t="n">
         <v>49.72625706473848</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.23694711871719, 56.21556701075976]</t>
+          <t>[43.23804998994761, 56.21446413952934]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>20.18036036036061</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.41703703703728</v>
+        <v>19.46474474474498</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.94368368368394</v>
+        <v>20.89597597597623</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_9_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_9_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.950525608403936, 73.08834038903932]</t>
+          <t>[53.971272790862656, 73.0675932065806]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.72772818883496, 56.518398959786154]</t>
+          <t>[43.723785206917356, 56.52234194170376]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[53.55876814085056, 73.27247175096153]</t>
+          <t>[53.223274338983074, 73.60796555282901]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.683090009276334, 54.51522887129203]</t>
+          <t>[41.673487715616915, 54.52483116495145]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[52.88993708917917, 73.97381740775116]</t>
+          <t>[52.92471860585947, 73.93903589107086]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.78650224801575, 56.70053648043104]</t>
+          <t>[43.78566341802341, 56.70137531042338]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,21 +857,21 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[52.54102138785514, 74.27099895352734]</t>
+          <t>[51.972149729488606, 74.83987061189387]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>1.443289932012704e-14</v>
       </c>
       <c r="P5" t="n">
         <v>1.276763380738194</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.0880791372793466, 1.4654476241970409]</t>
+          <t>[1.1006580868432705, 1.452868674633117]</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.85550158494461, 56.86358404626947]</t>
+          <t>[43.8534637159494, 56.86562191526468]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -898,10 +898,10 @@
         <v>19.4020020020023</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.67077077077105</v>
+        <v>18.71951951951981</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.13323323323354</v>
+        <v>20.08448448448479</v>
       </c>
     </row>
     <row r="6">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[52.345351224601465, 74.34733903327171]</t>
+          <t>[51.371422848175825, 75.32126740969736]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>6.883382752675971e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>6.883382752675971e-14</v>
       </c>
       <c r="P6" t="n">
         <v>1.213868632918578</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.808458799724235, 54.85321326161416]</t>
+          <t>[41.81135552363069, 54.850316537707705]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.255538556532755, 75.61326789393692]</t>
+          <t>[51.33263162441918, 75.5361748260505]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.13464793116691e-13</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13464793116691e-13</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="P7" t="n">
         <v>1.150973885098963</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.9325828297452, 57.00595039132513]</t>
+          <t>[43.934169671925595, 57.004363549144735]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.0458732266313, 76.47210161757953]</t>
+          <t>[50.975178499131644, 76.54279634507918]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.790301406070284e-13</v>
+        <v>4.514166818125886e-13</v>
       </c>
       <c r="O8" t="n">
-        <v>3.790301406070284e-13</v>
+        <v>4.514166818125886e-13</v>
       </c>
       <c r="P8" t="n">
         <v>0.8365001460008861</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.6352369529781159, 1.0377633390236563]</t>
+          <t>[0.6478159025420389, 1.0251843894597332]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.000082239244193e-10</v>
+        <v>1.595590326530782e-11</v>
       </c>
       <c r="S8" t="n">
-        <v>1.000082239244193e-10</v>
+        <v>1.595590326530782e-11</v>
       </c>
       <c r="T8" t="n">
         <v>49.68184016353947</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.191996676020565, 56.17168365105837]</t>
+          <t>[43.18873187550773, 56.17494845157121]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>20.65743743743769</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.89411411411435</v>
+        <v>19.94182182182206</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.42076076076102</v>
+        <v>21.37305305305331</v>
       </c>
     </row>
     <row r="9">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[50.99584731146365, 76.52212753274718]</t>
+          <t>[51.045832642558366, 76.47214220165246]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.289901767151605e-13</v>
+        <v>3.790301406070284e-13</v>
       </c>
       <c r="O9" t="n">
-        <v>4.289901767151605e-13</v>
+        <v>3.790301406070284e-13</v>
       </c>
       <c r="P9" t="n">
         <v>0.8365001460008861</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.19553027097845, 56.16815005610049]</t>
+          <t>[43.18967768851562, 56.174002638563316]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,35 +1287,35 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[51.88486223598158, 75.7254202271834]</t>
+          <t>[51.28612988844755, 76.32415257471744]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.685141163918161e-14</v>
+        <v>2.275957200481571e-13</v>
       </c>
       <c r="O10" t="n">
-        <v>4.685141163918161e-14</v>
+        <v>2.275957200481571e-13</v>
       </c>
       <c r="P10" t="n">
         <v>0.9622896416401163</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.761026448617347, 1.1635528346628856]</t>
+          <t>[0.7736053981812692, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.671773830480561e-12</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>1.671773830480561e-12</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="T10" t="n">
         <v>49.72625706473848</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.230800245503815, 56.22171388397314]</t>
+          <t>[43.231237530559746, 56.22127659891721]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1328,10 +1328,10 @@
         <v>20.18036036036061</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.41703703703728</v>
+        <v>19.46474474474498</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.94368368368394</v>
+        <v>20.89597597597623</v>
       </c>
     </row>
     <row r="11">
@@ -1373,35 +1373,35 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[51.348899223935916, 76.26138323922908]</t>
+          <t>[51.263628072924405, 76.34665439024059]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.938449400995523e-13</v>
+        <v>2.40918396343659e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.938449400995523e-13</v>
+        <v>2.40918396343659e-13</v>
       </c>
       <c r="P11" t="n">
         <v>0.9622896416401163</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.7736053981812692, 1.1509738850989635]</t>
+          <t>[0.761026448617347, 1.1635528346628856]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.229327833447314e-13</v>
+        <v>1.671773830480561e-12</v>
       </c>
       <c r="S11" t="n">
-        <v>2.229327833447314e-13</v>
+        <v>1.671773830480561e-12</v>
       </c>
       <c r="T11" t="n">
         <v>49.72625706473848</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.235908081483416, 56.21660604799354]</t>
+          <t>[43.22917946600896, 56.223334663467995]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1414,10 +1414,10 @@
         <v>20.18036036036061</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.46474474474498</v>
+        <v>19.41703703703728</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.89597597597623</v>
+        <v>20.94368368368394</v>
       </c>
     </row>
     <row r="12">
@@ -1459,35 +1459,35 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.162284349266486, 76.4479981138985]</t>
+          <t>[51.16136138840082, 76.44892107476417]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.110844914999689e-13</v>
+        <v>3.11750625314744e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>3.110844914999689e-13</v>
+        <v>3.11750625314744e-13</v>
       </c>
       <c r="P12" t="n">
         <v>0.9622896416401163</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.7736053981812692, 1.1509738850989635]</t>
+          <t>[0.761026448617347, 1.1635528346628856]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.229327833447314e-13</v>
+        <v>1.671773830480561e-12</v>
       </c>
       <c r="S12" t="n">
-        <v>2.229327833447314e-13</v>
+        <v>1.671773830480561e-12</v>
       </c>
       <c r="T12" t="n">
         <v>49.72625706473848</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.23804998994761, 56.21446413952934]</t>
+          <t>[43.2351383219051, 56.217375807571855]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>20.18036036036061</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.46474474474498</v>
+        <v>19.41703703703728</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.89597597597623</v>
+        <v>20.94368368368394</v>
       </c>
     </row>
   </sheetData>
